--- a/latex/spreadsheets/ch_hist.xlsx
+++ b/latex/spreadsheets/ch_hist.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\r13_enlight\branches\MeshExtraction\Demonstrator\g\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\master\latex\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="28800" windowHeight="13020"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="28800" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="ch-hist" sheetId="1" r:id="rId1"/>
@@ -582,38 +582,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -646,215 +615,221 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'ch-hist'!$A$3:$A$71</c:f>
+              <c:f>'ch-hist'!$A$2:$A$72</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="69"/>
+                <c:ptCount val="71"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>27</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>37</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>38</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>39</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>42</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>43</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>44</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>45</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>47</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>49</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>51</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>52</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>54</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="55">
                   <c:v>55</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="56">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="57">
                   <c:v>57</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="58">
                   <c:v>58</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="59">
                   <c:v>59</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="60">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="61">
                   <c:v>61</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="62">
                   <c:v>62</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="63">
                   <c:v>63</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="64">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="65">
                   <c:v>65</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="66">
                   <c:v>66</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="67">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="68">
                   <c:v>68</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="69">
                   <c:v>69</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="70">
                   <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
@@ -862,215 +837,221 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ch-hist'!$B$3:$B$71</c:f>
+              <c:f>'ch-hist'!$B$2:$B$72</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="69"/>
+                <c:ptCount val="71"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>5044</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>1432</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>1552</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>1860</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>1153</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>901</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>739</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>616</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>461</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>354</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>228</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>112</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>80</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>111</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>117</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>55</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>62</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>74</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>59</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>58</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="41">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="46">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="55">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="56">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="58">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="61">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="65">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="66">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="68">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -1086,11 +1067,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="189722160"/>
-        <c:axId val="188978216"/>
+        <c:axId val="440818248"/>
+        <c:axId val="440818640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="189722160"/>
+        <c:axId val="440818248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1147,20 +1128,20 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188978216"/>
+        <c:crossAx val="440818640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:tickMarkSkip val="1000"/>
+        <c:tickLblSkip val="10"/>
+        <c:tickMarkSkip val="10"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="188978216"/>
+        <c:axId val="440818640"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:max val="10000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1215,7 +1196,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189722160"/>
+        <c:crossAx val="440818248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1236,12 +1217,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1259,7 +1235,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1825,15 +1801,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>28574</xdr:colOff>
+      <xdr:colOff>228598</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>247649</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>142198</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28125</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2118,10 +2094,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B71"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="G69" sqref="G69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2130,7 +2106,7 @@
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2138,15 +2114,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
         <v>59416</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2154,7 +2133,7 @@
         <v>5044</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2162,7 +2141,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2170,7 +2149,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2178,7 +2157,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2186,7 +2165,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2194,7 +2173,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2202,7 +2181,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2210,7 +2189,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2218,7 +2197,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2226,7 +2205,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2234,7 +2213,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2242,7 +2221,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2250,7 +2229,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2564,63 +2543,63 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62">
         <v>3</v>
@@ -2628,39 +2607,39 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -2668,33 +2647,41 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
         <v>70</v>
       </c>
-      <c r="B71">
+      <c r="B72">
         <v>2</v>
       </c>
     </row>

--- a/latex/spreadsheets/ch_hist.xlsx
+++ b/latex/spreadsheets/ch_hist.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="28800" windowHeight="13020"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="28800" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="ch-hist" sheetId="1" r:id="rId1"/>
@@ -1067,11 +1067,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="440818248"/>
-        <c:axId val="440818640"/>
+        <c:axId val="369933072"/>
+        <c:axId val="369930720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="440818248"/>
+        <c:axId val="369933072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1128,7 +1128,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="440818640"/>
+        <c:crossAx val="369930720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1138,7 +1138,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="440818640"/>
+        <c:axId val="369930720"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1196,7 +1196,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="440818248"/>
+        <c:crossAx val="369933072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1806,10 +1806,10 @@
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>142198</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>28125</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>170998</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>112125</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2097,7 +2097,7 @@
   <dimension ref="A1:C72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
